--- a/backend/static/rawdata/2/data.xlsx
+++ b/backend/static/rawdata/2/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1053</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>411</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>430</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1077</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>452</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>156</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1678</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>701</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>282</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>228</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>455</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>130</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>803</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>308</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>777</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>206</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>902</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="40">
@@ -832,1257 +832,1237 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>161</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>615</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>275</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1287</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>205</v>
+        <v>976</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>576</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>178</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>654</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>757</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>566</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>925</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>81</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>529</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>57</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>223</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>730</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>136</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>77</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>958</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>427</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>156</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>58</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>189</v>
+        <v>815</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>382</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>827</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>876</v>
+        <v>773</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>287</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>458</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>308</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>653</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>666</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>369</v>
+        <v>828</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>125</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1977</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>201</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>304</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>232</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>188</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>502</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>414</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>52</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>259</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>56</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>255</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2053</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-21</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>151</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>631</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1101</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>330</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>941</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>958</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1539</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>497</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>129</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>125</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>346</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>177</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>402</v>
+        <v>729</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>316</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>138</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>127</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>299</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>230</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>203</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>312</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>465</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>678</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>33</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>236</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>255</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>452</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>58</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>892</v>
+        <v>696</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>353</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1118</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>160</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>154</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>426</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>409</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>386</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>57</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>378</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>208</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>801</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>431</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>364</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>428</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>102</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>726</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>122</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>354</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>502</v>
+        <v>774</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>547</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>987</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>208</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>786</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>97</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>211</v>
+        <v>902</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>628</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>203</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>443</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1076</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>856</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>278</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>209</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>199</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>555</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>177</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1236</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2024-12-21</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1000</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
